--- a/Backend/Querries/Brands.xlsx
+++ b/Backend/Querries/Brands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhtw-my.sharepoint.com/personal/wi21b009_technikum-wien_at/Documents/Dokumente/FH/5. Semester/SEPJ/SEPJ/Backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhtw-my.sharepoint.com/personal/wi21b009_technikum-wien_at/Documents/Dokumente/FH/5. Semester/SEPJ/SEPJ/Backend/Querries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="8_{CCCF0537-86AB-4090-9742-8DDAE87698FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B332ABF6-1DA9-4D11-9302-84C634699B5A}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{CCCF0537-86AB-4090-9742-8DDAE87698FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9258ADC-3F9B-4C9C-81EE-007BE4354EDA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{04F9D725-4E7B-4321-9392-CBCBEBAE0302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04F9D725-4E7B-4321-9392-CBCBEBAE0302}"/>
   </bookViews>
   <sheets>
     <sheet name="Brands" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Volvo</t>
   </si>
   <si>
-    <t>VW</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -478,6 +475,21 @@
   </si>
   <si>
     <t>Roma</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Mustang</t>
   </si>
 </sst>
 </file>
@@ -835,16 +847,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A243B4-E943-4D1F-A2A4-DF6B35B548A7}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -860,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -868,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1005</v>
       </c>
@@ -876,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1008</v>
       </c>
@@ -884,7 +896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1009</v>
       </c>
@@ -892,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1010</v>
       </c>
@@ -900,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1011</v>
       </c>
@@ -908,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1015</v>
       </c>
@@ -916,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1016</v>
       </c>
@@ -924,7 +936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1017</v>
       </c>
@@ -932,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1018</v>
       </c>
@@ -940,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1020</v>
       </c>
@@ -948,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1023</v>
       </c>
@@ -956,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1024</v>
       </c>
@@ -964,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1025</v>
       </c>
@@ -972,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1028</v>
       </c>
@@ -980,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1029</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1030</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1033</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1035</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1036</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1038</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1039</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1040</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1042</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1043</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1045</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1048</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1051</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1056</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1057</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1058</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1060</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1061</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1062</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1064</v>
       </c>
@@ -1140,60 +1152,60 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1065</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10004</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10008</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10012</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10026</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10029</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10034</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1203,15 +1215,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D789E8-BCE4-4882-A5F2-95C889CDC225}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1004</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1005</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1010</v>
       </c>
@@ -1263,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1012</v>
       </c>
@@ -1274,10 +1286,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2067</v>
       </c>
@@ -1285,10 +1297,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1837</v>
       </c>
@@ -1296,10 +1308,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1823</v>
       </c>
@@ -1307,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1013</v>
       </c>
@@ -1318,10 +1330,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2091</v>
       </c>
@@ -1329,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2241</v>
       </c>
@@ -1340,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1838</v>
       </c>
@@ -1351,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1022</v>
       </c>
@@ -1362,10 +1374,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1023</v>
       </c>
@@ -1373,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1024</v>
       </c>
@@ -1384,10 +1396,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2065</v>
       </c>
@@ -1395,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1789</v>
       </c>
@@ -1406,10 +1418,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1026</v>
       </c>
@@ -1417,10 +1429,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2066</v>
       </c>
@@ -1428,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1842</v>
       </c>
@@ -1439,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1027</v>
       </c>
@@ -1450,10 +1462,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2082</v>
       </c>
@@ -1461,10 +1473,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1925</v>
       </c>
@@ -1472,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2219</v>
       </c>
@@ -1483,10 +1495,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1824</v>
       </c>
@@ -1494,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1031</v>
       </c>
@@ -1505,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2145</v>
       </c>
@@ -1516,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1750</v>
       </c>
@@ -1527,10 +1539,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1033</v>
       </c>
@@ -1538,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2171</v>
       </c>
@@ -1549,10 +1561,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2315</v>
       </c>
@@ -1560,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1041</v>
       </c>
@@ -1571,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2044</v>
       </c>
@@ -1582,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1042</v>
       </c>
@@ -1593,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2026</v>
       </c>
@@ -1604,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1046</v>
       </c>
@@ -1615,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1050</v>
       </c>
@@ -1626,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1051</v>
       </c>
@@ -1637,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1054</v>
       </c>
@@ -1648,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1843</v>
       </c>
@@ -1659,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2125</v>
       </c>
@@ -1670,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1055</v>
       </c>
@@ -1681,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2048</v>
       </c>
@@ -1692,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1056</v>
       </c>
@@ -1703,10 +1715,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1814</v>
       </c>
@@ -1714,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2178</v>
       </c>
@@ -1725,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2287</v>
       </c>
@@ -1736,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1057</v>
       </c>
@@ -1747,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1058</v>
       </c>
@@ -1758,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1060</v>
       </c>
@@ -1769,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2027</v>
       </c>
@@ -1780,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2290</v>
       </c>
@@ -1791,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2289</v>
       </c>
@@ -1802,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2046</v>
       </c>
@@ -1813,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2233</v>
       </c>
@@ -1824,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2288</v>
       </c>
@@ -1835,10 +1847,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2232</v>
       </c>
@@ -1846,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1825</v>
       </c>
@@ -1857,10 +1869,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1932</v>
       </c>
@@ -1868,10 +1880,10 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1752</v>
       </c>
@@ -1879,10 +1891,10 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1074</v>
       </c>
@@ -1890,10 +1902,10 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1844</v>
       </c>
@@ -1901,10 +1913,10 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1729</v>
       </c>
@@ -1912,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1731</v>
       </c>
@@ -1923,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1910</v>
       </c>
@@ -1934,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1078</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1080</v>
       </c>
@@ -1956,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1088</v>
       </c>
@@ -1967,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2179</v>
       </c>
@@ -1978,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1090</v>
       </c>
@@ -1989,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1094</v>
       </c>
@@ -2000,10 +2012,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1753</v>
       </c>
@@ -2011,10 +2023,10 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1096</v>
       </c>
@@ -2022,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1100</v>
       </c>
@@ -2033,10 +2045,10 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1101</v>
       </c>
@@ -2044,10 +2056,10 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1102</v>
       </c>
@@ -2055,10 +2067,10 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2117</v>
       </c>
@@ -2066,10 +2078,10 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1846</v>
       </c>
@@ -2077,10 +2089,10 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1103</v>
       </c>
@@ -2088,10 +2100,10 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2057</v>
       </c>
@@ -2099,10 +2111,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1987</v>
       </c>
@@ -2110,10 +2122,10 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2280</v>
       </c>
@@ -2121,10 +2133,10 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1104</v>
       </c>
@@ -2132,10 +2144,10 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2170</v>
       </c>
@@ -2143,10 +2155,10 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2262</v>
       </c>
@@ -2154,10 +2166,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1106</v>
       </c>
@@ -2165,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1847</v>
       </c>
@@ -2176,10 +2188,10 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1912</v>
       </c>
@@ -2187,10 +2199,10 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1942</v>
       </c>
@@ -2198,10 +2210,10 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1110</v>
       </c>
@@ -2209,10 +2221,10 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2094</v>
       </c>
@@ -2220,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1115</v>
       </c>
@@ -2231,10 +2243,10 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1988</v>
       </c>
@@ -2242,10 +2254,10 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1849</v>
       </c>
@@ -2253,10 +2265,10 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2272</v>
       </c>
@@ -2264,10 +2276,10 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1953</v>
       </c>
@@ -2275,10 +2287,10 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1118</v>
       </c>
@@ -2286,10 +2298,10 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1826</v>
       </c>
@@ -2297,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2245</v>
       </c>
@@ -2308,10 +2320,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1150</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1151</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1851</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2133</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2134</v>
       </c>
@@ -2363,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1853</v>
       </c>
@@ -2374,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1762</v>
       </c>
@@ -2385,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2240</v>
       </c>
@@ -2396,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2294</v>
       </c>
@@ -2407,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2239</v>
       </c>
@@ -2418,12 +2430,51 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1</v>
+      </c>
       <c r="B111" t="s">
         <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1691</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1640</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1216</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Querries/Brands.xlsx
+++ b/Backend/Querries/Brands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhtw-my.sharepoint.com/personal/wi21b009_technikum-wien_at/Documents/Dokumente/FH/5. Semester/SEPJ/SEPJ/Backend/Querries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{CCCF0537-86AB-4090-9742-8DDAE87698FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9258ADC-3F9B-4C9C-81EE-007BE4354EDA}"/>
+  <xr:revisionPtr revIDLastSave="1130" documentId="8_{CCCF0537-86AB-4090-9742-8DDAE87698FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA1205C-02D4-4D19-85E3-4089E0249C66}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04F9D725-4E7B-4321-9392-CBCBEBAE0302}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{04F9D725-4E7B-4321-9392-CBCBEBAE0302}"/>
   </bookViews>
   <sheets>
     <sheet name="Brands" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="438">
   <si>
     <t>ID</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Roma</t>
   </si>
   <si>
-    <t>XXX</t>
-  </si>
-  <si>
     <t>Volkswagen</t>
   </si>
   <si>
@@ -490,6 +487,870 @@
   </si>
   <si>
     <t>Mustang</t>
+  </si>
+  <si>
+    <t>500 E</t>
+  </si>
+  <si>
+    <t>500C</t>
+  </si>
+  <si>
+    <t>500L</t>
+  </si>
+  <si>
+    <t>500X</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Doblo</t>
+  </si>
+  <si>
+    <t>Ducato</t>
+  </si>
+  <si>
+    <t>Freemont</t>
+  </si>
+  <si>
+    <t>Grande Punkt</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Punto</t>
+  </si>
+  <si>
+    <t>Talento</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>B-MAX</t>
+  </si>
+  <si>
+    <t>C-MAX</t>
+  </si>
+  <si>
+    <t>EcoSport</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Escort</t>
+  </si>
+  <si>
+    <t>Fiesta</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>Kuga</t>
+  </si>
+  <si>
+    <t>Mondeo</t>
+  </si>
+  <si>
+    <t>Mustang Mach-E</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>S-MAX</t>
+  </si>
+  <si>
+    <t>Tourneo</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>Transit Custom</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>CR-V</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>HR-V</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>ZR-V</t>
+  </si>
+  <si>
+    <t>Bayon</t>
+  </si>
+  <si>
+    <t>Getz</t>
+  </si>
+  <si>
+    <t>Ioniq</t>
+  </si>
+  <si>
+    <t>Ioniq 5</t>
+  </si>
+  <si>
+    <t>Ioniq 6</t>
+  </si>
+  <si>
+    <t>Kona</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Staria</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i40</t>
+  </si>
+  <si>
+    <t>iX20</t>
+  </si>
+  <si>
+    <t>iX35</t>
+  </si>
+  <si>
+    <t>E-Pace</t>
+  </si>
+  <si>
+    <t>F-Pace</t>
+  </si>
+  <si>
+    <t>F-Type</t>
+  </si>
+  <si>
+    <t>I-Pace</t>
+  </si>
+  <si>
+    <t>S-Type</t>
+  </si>
+  <si>
+    <t>X-Type</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>XJ</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Grand Cherokee</t>
+  </si>
+  <si>
+    <t>Renegade</t>
+  </si>
+  <si>
+    <t>Wrangler</t>
+  </si>
+  <si>
+    <t>Ceed</t>
+  </si>
+  <si>
+    <t>EV6</t>
+  </si>
+  <si>
+    <t>Niro</t>
+  </si>
+  <si>
+    <t>Optima</t>
+  </si>
+  <si>
+    <t>Picanto</t>
+  </si>
+  <si>
+    <t>ProCeed</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Sorento</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Sportage</t>
+  </si>
+  <si>
+    <t>Stonic</t>
+  </si>
+  <si>
+    <t>XCeed</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Ypsilon</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Discovery Sport</t>
+  </si>
+  <si>
+    <t>Freelander</t>
+  </si>
+  <si>
+    <t>Range Rover</t>
+  </si>
+  <si>
+    <t>Range Rover Evoque</t>
+  </si>
+  <si>
+    <t>Range Rover Sport</t>
+  </si>
+  <si>
+    <t>Range Rover Velar</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Ghibli</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Quattroporte</t>
+  </si>
+  <si>
+    <t>CX-3</t>
+  </si>
+  <si>
+    <t>CX-30</t>
+  </si>
+  <si>
+    <t>CX-5</t>
+  </si>
+  <si>
+    <t>CX-60</t>
+  </si>
+  <si>
+    <t>CX-7</t>
+  </si>
+  <si>
+    <t>MX-30</t>
+  </si>
+  <si>
+    <t>MX-5</t>
+  </si>
+  <si>
+    <t>Mazda2</t>
+  </si>
+  <si>
+    <t>Mazda3</t>
+  </si>
+  <si>
+    <t>Mazda5</t>
+  </si>
+  <si>
+    <t>Mazda6</t>
+  </si>
+  <si>
+    <t>A-Klasse</t>
+  </si>
+  <si>
+    <t>AMG GT</t>
+  </si>
+  <si>
+    <t>B-Klasse</t>
+  </si>
+  <si>
+    <t>C-Klasse</t>
+  </si>
+  <si>
+    <t>CL-Klasse</t>
+  </si>
+  <si>
+    <t>CLA-Klasse</t>
+  </si>
+  <si>
+    <t>CLK-Klasse</t>
+  </si>
+  <si>
+    <t>CLS-Klasse</t>
+  </si>
+  <si>
+    <t>E-Klasse</t>
+  </si>
+  <si>
+    <t>EQA</t>
+  </si>
+  <si>
+    <t>EQB</t>
+  </si>
+  <si>
+    <t>EQC</t>
+  </si>
+  <si>
+    <t>EQE</t>
+  </si>
+  <si>
+    <t>G-Klasse</t>
+  </si>
+  <si>
+    <t>GL-Klasse</t>
+  </si>
+  <si>
+    <t>GLA-Klasse</t>
+  </si>
+  <si>
+    <t>GLB</t>
+  </si>
+  <si>
+    <t>GLC-Klasse</t>
+  </si>
+  <si>
+    <t>GLE-Klasse</t>
+  </si>
+  <si>
+    <t>GLK-Klasse</t>
+  </si>
+  <si>
+    <t>M-Klasse</t>
+  </si>
+  <si>
+    <t>S-Klasse</t>
+  </si>
+  <si>
+    <t>SL-Klasse</t>
+  </si>
+  <si>
+    <t>SLK-Klasse</t>
+  </si>
+  <si>
+    <t>Sprinter</t>
+  </si>
+  <si>
+    <t>V-Klasse</t>
+  </si>
+  <si>
+    <t>Vito</t>
+  </si>
+  <si>
+    <t>EHS</t>
+  </si>
+  <si>
+    <t>MG4</t>
+  </si>
+  <si>
+    <t>MG5</t>
+  </si>
+  <si>
+    <t>Marvel R</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>Cabrio</t>
+  </si>
+  <si>
+    <t>Clubman</t>
+  </si>
+  <si>
+    <t>Countryman</t>
+  </si>
+  <si>
+    <t>Coupé</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>ASX</t>
+  </si>
+  <si>
+    <t>Colt</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Lancer</t>
+  </si>
+  <si>
+    <t>Outlander</t>
+  </si>
+  <si>
+    <t>Pajero</t>
+  </si>
+  <si>
+    <t>Space Star</t>
+  </si>
+  <si>
+    <t>Juke</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Micra</t>
+  </si>
+  <si>
+    <t>Qashqai</t>
+  </si>
+  <si>
+    <t>Townstar</t>
+  </si>
+  <si>
+    <t>X-TRAIL</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Antara</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Corsa</t>
+  </si>
+  <si>
+    <t>Crossland</t>
+  </si>
+  <si>
+    <t>Crossland X</t>
+  </si>
+  <si>
+    <t>Grandland</t>
+  </si>
+  <si>
+    <t>Grandland X</t>
+  </si>
+  <si>
+    <t>Insignia</t>
+  </si>
+  <si>
+    <t>Meriva</t>
+  </si>
+  <si>
+    <t>Mokka</t>
+  </si>
+  <si>
+    <t>Vectra</t>
+  </si>
+  <si>
+    <t>Vivaro</t>
+  </si>
+  <si>
+    <t>Zafira</t>
+  </si>
+  <si>
+    <t>Rifter</t>
+  </si>
+  <si>
+    <t>Boxster</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Cayman</t>
+  </si>
+  <si>
+    <t>Macan</t>
+  </si>
+  <si>
+    <t>Panamera</t>
+  </si>
+  <si>
+    <t>Taycan</t>
+  </si>
+  <si>
+    <t>Arkana</t>
+  </si>
+  <si>
+    <t>Austral</t>
+  </si>
+  <si>
+    <t>Captur</t>
+  </si>
+  <si>
+    <t>Clio</t>
+  </si>
+  <si>
+    <t>Espace</t>
+  </si>
+  <si>
+    <t>Grand Scénic</t>
+  </si>
+  <si>
+    <t>Kadjar</t>
+  </si>
+  <si>
+    <t>Kangoo</t>
+  </si>
+  <si>
+    <t>Koleos</t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t>Mégane</t>
+  </si>
+  <si>
+    <t>Scénic</t>
+  </si>
+  <si>
+    <t>Talisman</t>
+  </si>
+  <si>
+    <t>Trafic</t>
+  </si>
+  <si>
+    <t>Twingo</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Alhambra</t>
+  </si>
+  <si>
+    <t>Arona</t>
+  </si>
+  <si>
+    <t>Ateca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Tarraco</t>
+  </si>
+  <si>
+    <t>Enyaq</t>
+  </si>
+  <si>
+    <t>Fabia</t>
+  </si>
+  <si>
+    <t>Kamiq</t>
+  </si>
+  <si>
+    <t>Karoq</t>
+  </si>
+  <si>
+    <t>Kodiaq</t>
+  </si>
+  <si>
+    <t>Octavia</t>
+  </si>
+  <si>
+    <t>Rapid</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>Superb</t>
+  </si>
+  <si>
+    <t>forfour</t>
+  </si>
+  <si>
+    <t>fortwo</t>
+  </si>
+  <si>
+    <t>roadster</t>
+  </si>
+  <si>
+    <t>Forester</t>
+  </si>
+  <si>
+    <t>Impreza</t>
+  </si>
+  <si>
+    <t>Outback</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>Across</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>Jimny</t>
+  </si>
+  <si>
+    <t>S-Cross</t>
+  </si>
+  <si>
+    <t>SX4</t>
+  </si>
+  <si>
+    <t>Swace</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Vitara</t>
+  </si>
+  <si>
+    <t>Auris</t>
+  </si>
+  <si>
+    <t>Avensis</t>
+  </si>
+  <si>
+    <t>Aygo</t>
+  </si>
+  <si>
+    <t>C-HR</t>
+  </si>
+  <si>
+    <t>Corolla</t>
+  </si>
+  <si>
+    <t>Land Cruiser</t>
+  </si>
+  <si>
+    <t>Prius</t>
+  </si>
+  <si>
+    <t>Proace</t>
+  </si>
+  <si>
+    <t>RAV4</t>
+  </si>
+  <si>
+    <t>Verso</t>
+  </si>
+  <si>
+    <t>Yaris</t>
+  </si>
+  <si>
+    <t>Yaris Cross</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S80</t>
+  </si>
+  <si>
+    <t>S90</t>
+  </si>
+  <si>
+    <t>V40</t>
+  </si>
+  <si>
+    <t>V50</t>
+  </si>
+  <si>
+    <t>V60</t>
+  </si>
+  <si>
+    <t>V70</t>
+  </si>
+  <si>
+    <t>V90</t>
+  </si>
+  <si>
+    <t>XC40</t>
+  </si>
+  <si>
+    <t>XC60</t>
+  </si>
+  <si>
+    <t>XC90</t>
+  </si>
+  <si>
+    <t>Arteon</t>
+  </si>
+  <si>
+    <t>Beetle</t>
+  </si>
+  <si>
+    <t>Caddy</t>
+  </si>
+  <si>
+    <t>Caravelle</t>
+  </si>
+  <si>
+    <t>Eos</t>
+  </si>
+  <si>
+    <t>ID.Buzz</t>
+  </si>
+  <si>
+    <t>ID.3</t>
+  </si>
+  <si>
+    <t>ID.4</t>
+  </si>
+  <si>
+    <t>ID.5</t>
+  </si>
+  <si>
+    <t>Käfer</t>
+  </si>
+  <si>
+    <t>Multivan</t>
+  </si>
+  <si>
+    <t>Passat</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Scirocco</t>
+  </si>
+  <si>
+    <t>Sharan</t>
+  </si>
+  <si>
+    <t>T-Cross</t>
+  </si>
+  <si>
+    <t>T-Roc</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Taigo</t>
+  </si>
+  <si>
+    <t>Tiguan</t>
+  </si>
+  <si>
+    <t>Touareg</t>
+  </si>
+  <si>
+    <t>Touran</t>
+  </si>
+  <si>
+    <t>up!</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model S</t>
+  </si>
+  <si>
+    <t>Model X</t>
+  </si>
+  <si>
+    <t>Model Y</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Crossline</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t>Born</t>
+  </si>
+  <si>
+    <t>Formentor</t>
+  </si>
+  <si>
+    <t>Atto</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Tang</t>
   </si>
 </sst>
 </file>
@@ -847,16 +1708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A243B4-E943-4D1F-A2A4-DF6B35B548A7}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -872,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -880,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1005</v>
       </c>
@@ -888,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1008</v>
       </c>
@@ -896,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1009</v>
       </c>
@@ -904,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1010</v>
       </c>
@@ -912,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1011</v>
       </c>
@@ -920,7 +1781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1015</v>
       </c>
@@ -928,7 +1789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1016</v>
       </c>
@@ -936,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1017</v>
       </c>
@@ -944,7 +1805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1018</v>
       </c>
@@ -952,7 +1813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1020</v>
       </c>
@@ -960,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1023</v>
       </c>
@@ -968,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1024</v>
       </c>
@@ -976,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1025</v>
       </c>
@@ -984,7 +1845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1028</v>
       </c>
@@ -992,7 +1853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1029</v>
       </c>
@@ -1000,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1030</v>
       </c>
@@ -1008,7 +1869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1033</v>
       </c>
@@ -1016,7 +1877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1035</v>
       </c>
@@ -1024,7 +1885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1036</v>
       </c>
@@ -1032,7 +1893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1038</v>
       </c>
@@ -1040,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1039</v>
       </c>
@@ -1048,7 +1909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1040</v>
       </c>
@@ -1056,7 +1917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1042</v>
       </c>
@@ -1064,7 +1925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1043</v>
       </c>
@@ -1072,7 +1933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1045</v>
       </c>
@@ -1080,7 +1941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1048</v>
       </c>
@@ -1088,7 +1949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1051</v>
       </c>
@@ -1096,7 +1957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1056</v>
       </c>
@@ -1104,7 +1965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1057</v>
       </c>
@@ -1112,7 +1973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1058</v>
       </c>
@@ -1120,7 +1981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1060</v>
       </c>
@@ -1128,7 +1989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1061</v>
       </c>
@@ -1136,7 +1997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1062</v>
       </c>
@@ -1144,7 +2005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1064</v>
       </c>
@@ -1152,15 +2013,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1065</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004</v>
       </c>
@@ -1168,7 +2029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10008</v>
       </c>
@@ -1176,7 +2037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10012</v>
       </c>
@@ -1184,7 +2045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10026</v>
       </c>
@@ -1192,7 +2053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10029</v>
       </c>
@@ -1200,7 +2061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10034</v>
       </c>
@@ -1215,15 +2076,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D789E8-BCE4-4882-A5F2-95C889CDC225}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -1245,7 +2110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1004</v>
       </c>
@@ -1256,7 +2121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1005</v>
       </c>
@@ -1267,7 +2132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1010</v>
       </c>
@@ -1278,7 +2143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1012</v>
       </c>
@@ -1289,7 +2154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2067</v>
       </c>
@@ -1300,7 +2165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1837</v>
       </c>
@@ -1311,7 +2176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1823</v>
       </c>
@@ -1322,7 +2187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1013</v>
       </c>
@@ -1333,7 +2198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2091</v>
       </c>
@@ -1344,7 +2209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2241</v>
       </c>
@@ -1355,7 +2220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1838</v>
       </c>
@@ -1366,7 +2231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1022</v>
       </c>
@@ -1377,7 +2242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1023</v>
       </c>
@@ -1388,7 +2253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1024</v>
       </c>
@@ -1399,7 +2264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2065</v>
       </c>
@@ -1410,7 +2275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1789</v>
       </c>
@@ -1421,7 +2286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1026</v>
       </c>
@@ -1432,7 +2297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2066</v>
       </c>
@@ -1443,7 +2308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1842</v>
       </c>
@@ -1454,7 +2319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1027</v>
       </c>
@@ -1465,7 +2330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2082</v>
       </c>
@@ -1476,7 +2341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1925</v>
       </c>
@@ -1487,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2219</v>
       </c>
@@ -1498,7 +2363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1824</v>
       </c>
@@ -1509,7 +2374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1031</v>
       </c>
@@ -1520,7 +2385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2145</v>
       </c>
@@ -1531,7 +2396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1750</v>
       </c>
@@ -1542,7 +2407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1033</v>
       </c>
@@ -1553,7 +2418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2171</v>
       </c>
@@ -1564,7 +2429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2315</v>
       </c>
@@ -1575,7 +2440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1041</v>
       </c>
@@ -1586,7 +2451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2044</v>
       </c>
@@ -1597,7 +2462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1042</v>
       </c>
@@ -1608,7 +2473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2026</v>
       </c>
@@ -1619,7 +2484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1046</v>
       </c>
@@ -1630,7 +2495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1050</v>
       </c>
@@ -1641,7 +2506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1051</v>
       </c>
@@ -1652,7 +2517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1054</v>
       </c>
@@ -1663,7 +2528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1843</v>
       </c>
@@ -1674,7 +2539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2125</v>
       </c>
@@ -1685,7 +2550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1055</v>
       </c>
@@ -1696,7 +2561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2048</v>
       </c>
@@ -1707,7 +2572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1056</v>
       </c>
@@ -1718,7 +2583,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1814</v>
       </c>
@@ -1729,7 +2594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2178</v>
       </c>
@@ -1740,7 +2605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2287</v>
       </c>
@@ -1751,7 +2616,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1057</v>
       </c>
@@ -1762,7 +2627,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1058</v>
       </c>
@@ -1773,7 +2638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1060</v>
       </c>
@@ -1784,7 +2649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2027</v>
       </c>
@@ -1795,7 +2660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2290</v>
       </c>
@@ -1806,7 +2671,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2289</v>
       </c>
@@ -1817,7 +2682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2046</v>
       </c>
@@ -1828,7 +2693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2233</v>
       </c>
@@ -1839,7 +2704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2288</v>
       </c>
@@ -1850,7 +2715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2232</v>
       </c>
@@ -1861,7 +2726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1825</v>
       </c>
@@ -1872,7 +2737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1932</v>
       </c>
@@ -1883,7 +2748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1752</v>
       </c>
@@ -1894,7 +2759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1074</v>
       </c>
@@ -1905,7 +2770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1844</v>
       </c>
@@ -1916,7 +2781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1729</v>
       </c>
@@ -1927,7 +2792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1731</v>
       </c>
@@ -1938,7 +2803,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1910</v>
       </c>
@@ -1949,7 +2814,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1078</v>
       </c>
@@ -1960,7 +2825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1080</v>
       </c>
@@ -1971,7 +2836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1088</v>
       </c>
@@ -1982,7 +2847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2179</v>
       </c>
@@ -1993,7 +2858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1090</v>
       </c>
@@ -2004,7 +2869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1094</v>
       </c>
@@ -2015,7 +2880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1753</v>
       </c>
@@ -2026,7 +2891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1096</v>
       </c>
@@ -2037,7 +2902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1100</v>
       </c>
@@ -2048,7 +2913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1101</v>
       </c>
@@ -2059,7 +2924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1102</v>
       </c>
@@ -2070,7 +2935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2117</v>
       </c>
@@ -2081,7 +2946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1846</v>
       </c>
@@ -2092,7 +2957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1103</v>
       </c>
@@ -2103,7 +2968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2057</v>
       </c>
@@ -2114,7 +2979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1987</v>
       </c>
@@ -2125,7 +2990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2280</v>
       </c>
@@ -2136,7 +3001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1104</v>
       </c>
@@ -2147,7 +3012,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2170</v>
       </c>
@@ -2158,7 +3023,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2262</v>
       </c>
@@ -2169,7 +3034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1106</v>
       </c>
@@ -2180,7 +3045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1847</v>
       </c>
@@ -2191,7 +3056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1912</v>
       </c>
@@ -2202,7 +3067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1942</v>
       </c>
@@ -2213,7 +3078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1110</v>
       </c>
@@ -2224,7 +3089,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2094</v>
       </c>
@@ -2235,7 +3100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1115</v>
       </c>
@@ -2246,7 +3111,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1988</v>
       </c>
@@ -2257,7 +3122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1849</v>
       </c>
@@ -2268,7 +3133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2272</v>
       </c>
@@ -2279,7 +3144,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1953</v>
       </c>
@@ -2290,7 +3155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1118</v>
       </c>
@@ -2301,7 +3166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1826</v>
       </c>
@@ -2312,7 +3177,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2245</v>
       </c>
@@ -2323,7 +3188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1150</v>
       </c>
@@ -2334,7 +3199,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1151</v>
       </c>
@@ -2345,7 +3210,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1851</v>
       </c>
@@ -2356,7 +3221,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2133</v>
       </c>
@@ -2367,7 +3232,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2134</v>
       </c>
@@ -2378,7 +3243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1853</v>
       </c>
@@ -2389,7 +3254,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1762</v>
       </c>
@@ -2400,7 +3265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2240</v>
       </c>
@@ -2411,7 +3276,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2294</v>
       </c>
@@ -2422,7 +3287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2239</v>
       </c>
@@ -2433,48 +3298,3502 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>1795</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2205</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2072</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2041</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2056</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1163</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1170</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1926</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1173</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1189</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1961</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1816</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2028</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2075</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1194</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1195</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1197</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1200</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1201</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1829</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1203</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1216</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2228</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1206</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1740</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1211</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2157</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1220</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1225</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1228</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1230</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2354</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2213</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1243</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2080</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2229</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2278</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2105</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1249</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2270</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1256</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1818</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1857</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1796</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1927</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1916</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1858</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2116</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2083</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1972</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1264</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1266</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2059</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1797</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1267</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2269</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1273</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1766</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1275</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2053</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1276</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1767</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2230</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2079</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1933</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1283</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1285</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1288</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1859</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1289</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2102</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1311</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1319</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1934</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1748</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1325</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1326</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2055</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1328</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1330</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1998</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1864</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2097</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1333</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2049</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1339</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2176</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1348</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2074</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1349</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2060</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2186</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1945</v>
+      </c>
+      <c r="B212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2263</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1802</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2202</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1369</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1363</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1364</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1365</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1366</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1382</v>
+      </c>
+      <c r="B221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1384</v>
+      </c>
+      <c r="B222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2118</v>
+      </c>
+      <c r="B223" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1386</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1387</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1741</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1973</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1390</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1392</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1393</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2236</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2265</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2201</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2259</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1396</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1742</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2043</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2206</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2073</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2068</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1832</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1398</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1771</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1408</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1410</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1412</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1413</v>
+      </c>
+      <c r="B247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1416</v>
+      </c>
+      <c r="B248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2242</v>
+      </c>
+      <c r="B249" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2296</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2256</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2234</v>
+      </c>
+      <c r="B252" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2247</v>
+      </c>
+      <c r="B253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1723</v>
+      </c>
+      <c r="B254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1803</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1871</v>
+      </c>
+      <c r="B256" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2009</v>
+      </c>
+      <c r="B257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1722</v>
+      </c>
+      <c r="B258" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1872</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1428</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1429</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1434</v>
+      </c>
+      <c r="B262" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1435</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1436</v>
+      </c>
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1442</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1878</v>
+      </c>
+      <c r="B266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C266" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1943</v>
+      </c>
+      <c r="B267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C267" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1460</v>
+      </c>
+      <c r="B268" t="s">
+        <v>26</v>
+      </c>
+      <c r="C268" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1774</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2255</v>
+      </c>
+      <c r="B270" t="s">
+        <v>26</v>
+      </c>
+      <c r="C270" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1474</v>
+      </c>
+      <c r="B271" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1969</v>
+      </c>
+      <c r="B272" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1776</v>
+      </c>
+      <c r="B273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1477</v>
+      </c>
+      <c r="B274" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1481</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1482</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2090</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2282</v>
+      </c>
+      <c r="B278" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2356</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2104</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1833</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1487</v>
+      </c>
+      <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1043</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1499</v>
+      </c>
+      <c r="B284" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1502</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1503</v>
+      </c>
+      <c r="B286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1977</v>
+      </c>
+      <c r="B287" t="s">
+        <v>28</v>
+      </c>
+      <c r="C287">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1508</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1743</v>
+      </c>
+      <c r="B289" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1948</v>
+      </c>
+      <c r="B290" t="s">
+        <v>28</v>
+      </c>
+      <c r="C290">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1881</v>
+      </c>
+      <c r="B291" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1510</v>
+      </c>
+      <c r="B292" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1511</v>
+      </c>
+      <c r="B293" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1805</v>
+      </c>
+      <c r="B294" t="s">
+        <v>28</v>
+      </c>
+      <c r="C294">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1514</v>
+      </c>
+      <c r="B295" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1515</v>
+      </c>
+      <c r="B296" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2281</v>
+      </c>
+      <c r="B297" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1882</v>
+      </c>
+      <c r="B298" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1919</v>
+      </c>
+      <c r="B299" t="s">
+        <v>28</v>
+      </c>
+      <c r="C299">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1520</v>
+      </c>
+      <c r="B300" t="s">
+        <v>28</v>
+      </c>
+      <c r="C300">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2146</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2121</v>
+      </c>
+      <c r="B302" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1528</v>
+      </c>
+      <c r="B303" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1533</v>
+      </c>
+      <c r="B304" t="s">
+        <v>29</v>
+      </c>
+      <c r="C304">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2320</v>
+      </c>
+      <c r="B305" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2321</v>
+      </c>
+      <c r="B306" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1535</v>
+      </c>
+      <c r="B307" t="s">
+        <v>29</v>
+      </c>
+      <c r="C307" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1537</v>
+      </c>
+      <c r="B308" t="s">
+        <v>29</v>
+      </c>
+      <c r="C308" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1538</v>
+      </c>
+      <c r="B309" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2038</v>
+      </c>
+      <c r="B310" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1884</v>
+      </c>
+      <c r="B311" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2220</v>
+      </c>
+      <c r="B312" t="s">
+        <v>29</v>
+      </c>
+      <c r="C312" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2231</v>
+      </c>
+      <c r="B313" t="s">
+        <v>30</v>
+      </c>
+      <c r="C313" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2286</v>
+      </c>
+      <c r="B314" t="s">
+        <v>30</v>
+      </c>
+      <c r="C314" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1978</v>
+      </c>
+      <c r="B315" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1542</v>
+      </c>
+      <c r="B316" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1543</v>
+      </c>
+      <c r="B317" t="s">
+        <v>30</v>
+      </c>
+      <c r="C317" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1940</v>
+      </c>
+      <c r="B318" t="s">
+        <v>30</v>
+      </c>
+      <c r="C318" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2062</v>
+      </c>
+      <c r="B319" t="s">
+        <v>30</v>
+      </c>
+      <c r="C319" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1545</v>
+      </c>
+      <c r="B320" t="s">
+        <v>30</v>
+      </c>
+      <c r="C320" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1834</v>
+      </c>
+      <c r="B321" t="s">
+        <v>30</v>
+      </c>
+      <c r="C321" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1546</v>
+      </c>
+      <c r="B322" t="s">
+        <v>30</v>
+      </c>
+      <c r="C322" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1548</v>
+      </c>
+      <c r="B323" t="s">
+        <v>30</v>
+      </c>
+      <c r="C323" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1558</v>
+      </c>
+      <c r="B324" t="s">
+        <v>30</v>
+      </c>
+      <c r="C324" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2070</v>
+      </c>
+      <c r="B325" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1561</v>
+      </c>
+      <c r="B326" t="s">
+        <v>30</v>
+      </c>
+      <c r="C326" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1562</v>
+      </c>
+      <c r="B327" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1960</v>
+      </c>
+      <c r="B328" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1583</v>
+      </c>
+      <c r="B329" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2103</v>
+      </c>
+      <c r="B330" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2069</v>
+      </c>
+      <c r="B331" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1588</v>
+      </c>
+      <c r="B332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1590</v>
+      </c>
+      <c r="B333" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2172</v>
+      </c>
+      <c r="B334" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2217</v>
+      </c>
+      <c r="B335" t="s">
+        <v>32</v>
+      </c>
+      <c r="C335" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1596</v>
+      </c>
+      <c r="B336" t="s">
+        <v>32</v>
+      </c>
+      <c r="C336" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2192</v>
+      </c>
+      <c r="B337" t="s">
+        <v>32</v>
+      </c>
+      <c r="C337" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2100</v>
+      </c>
+      <c r="B338" t="s">
+        <v>32</v>
+      </c>
+      <c r="C338" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2092</v>
+      </c>
+      <c r="B339" t="s">
+        <v>32</v>
+      </c>
+      <c r="C339" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1600</v>
+      </c>
+      <c r="B340" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1601</v>
+      </c>
+      <c r="B341" t="s">
+        <v>32</v>
+      </c>
+      <c r="C341" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2183</v>
+      </c>
+      <c r="B342" t="s">
+        <v>32</v>
+      </c>
+      <c r="C342" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1605</v>
+      </c>
+      <c r="B343" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1380</v>
+      </c>
+      <c r="B344" t="s">
+        <v>33</v>
+      </c>
+      <c r="C344" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1378</v>
+      </c>
+      <c r="B345" t="s">
+        <v>33</v>
+      </c>
+      <c r="C345" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1381</v>
+      </c>
+      <c r="B346" t="s">
+        <v>33</v>
+      </c>
+      <c r="C346" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1612</v>
+      </c>
+      <c r="B347" t="s">
+        <v>34</v>
+      </c>
+      <c r="C347" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1613</v>
+      </c>
+      <c r="B348" t="s">
+        <v>34</v>
+      </c>
+      <c r="C348" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1619</v>
+      </c>
+      <c r="B349" t="s">
+        <v>34</v>
+      </c>
+      <c r="C349" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1944</v>
+      </c>
+      <c r="B350" t="s">
+        <v>34</v>
+      </c>
+      <c r="C350" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2207</v>
+      </c>
+      <c r="B351" t="s">
+        <v>35</v>
+      </c>
+      <c r="C351" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1627</v>
+      </c>
+      <c r="B352" t="s">
+        <v>35</v>
+      </c>
+      <c r="C352" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1628</v>
+      </c>
+      <c r="B353" t="s">
+        <v>35</v>
+      </c>
+      <c r="C353" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2237</v>
+      </c>
+      <c r="B354" t="s">
+        <v>35</v>
+      </c>
+      <c r="C354" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1744</v>
+      </c>
+      <c r="B355" t="s">
+        <v>35</v>
+      </c>
+      <c r="C355" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2208</v>
+      </c>
+      <c r="B356" t="s">
+        <v>35</v>
+      </c>
+      <c r="C356" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1632</v>
+      </c>
+      <c r="B357" t="s">
+        <v>35</v>
+      </c>
+      <c r="C357" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1633</v>
+      </c>
+      <c r="B358" t="s">
+        <v>35</v>
+      </c>
+      <c r="C358" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1785</v>
+      </c>
+      <c r="B359" t="s">
+        <v>36</v>
+      </c>
+      <c r="C359" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1637</v>
+      </c>
+      <c r="B360" t="s">
+        <v>36</v>
+      </c>
+      <c r="C360" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1639</v>
+      </c>
+      <c r="B361" t="s">
+        <v>36</v>
+      </c>
+      <c r="C361" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2081</v>
+      </c>
+      <c r="B362" t="s">
+        <v>36</v>
+      </c>
+      <c r="C362" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1640</v>
+      </c>
+      <c r="B363" t="s">
+        <v>36</v>
+      </c>
+      <c r="C363" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1643</v>
+      </c>
+      <c r="B364" t="s">
+        <v>36</v>
+      </c>
+      <c r="C364" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1646</v>
+      </c>
+      <c r="B365" t="s">
+        <v>36</v>
+      </c>
+      <c r="C365" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1653</v>
+      </c>
+      <c r="B366" t="s">
+        <v>36</v>
+      </c>
+      <c r="C366" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2098</v>
+      </c>
+      <c r="B367" t="s">
+        <v>36</v>
+      </c>
+      <c r="C367" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1654</v>
+      </c>
+      <c r="B368" t="s">
+        <v>36</v>
+      </c>
+      <c r="C368" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1894</v>
+      </c>
+      <c r="B369" t="s">
+        <v>36</v>
+      </c>
+      <c r="C369" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1657</v>
+      </c>
+      <c r="B370" t="s">
+        <v>36</v>
+      </c>
+      <c r="C370" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2235</v>
+      </c>
+      <c r="B371" t="s">
+        <v>36</v>
+      </c>
+      <c r="C371" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2251</v>
+      </c>
+      <c r="B372" t="s">
+        <v>37</v>
+      </c>
+      <c r="C372" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1673</v>
+      </c>
+      <c r="B373" t="s">
+        <v>37</v>
+      </c>
+      <c r="C373" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1675</v>
+      </c>
+      <c r="B374" t="s">
+        <v>37</v>
+      </c>
+      <c r="C374" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1676</v>
+      </c>
+      <c r="B375" t="s">
+        <v>37</v>
+      </c>
+      <c r="C375" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1677</v>
+      </c>
+      <c r="B376" t="s">
+        <v>37</v>
+      </c>
+      <c r="C376" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1678</v>
+      </c>
+      <c r="B377" t="s">
+        <v>37</v>
+      </c>
+      <c r="C377" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1924</v>
+      </c>
+      <c r="B378" t="s">
+        <v>37</v>
+      </c>
+      <c r="C378" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1679</v>
+      </c>
+      <c r="B379" t="s">
+        <v>37</v>
+      </c>
+      <c r="C379" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1680</v>
+      </c>
+      <c r="B380" t="s">
+        <v>37</v>
+      </c>
+      <c r="C380" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2126</v>
+      </c>
+      <c r="B381" t="s">
+        <v>37</v>
+      </c>
+      <c r="C381" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1835</v>
+      </c>
+      <c r="B382" t="s">
+        <v>37</v>
+      </c>
+      <c r="C382" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1682</v>
+      </c>
+      <c r="B383" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2089</v>
+      </c>
+      <c r="B384" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="C384" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1683</v>
+      </c>
+      <c r="B385" t="s">
+        <v>146</v>
+      </c>
+      <c r="C385" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1686</v>
+      </c>
+      <c r="B386" t="s">
+        <v>146</v>
+      </c>
+      <c r="C386" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1687</v>
+      </c>
+      <c r="B387" t="s">
+        <v>146</v>
+      </c>
+      <c r="C387" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1746</v>
+      </c>
+      <c r="B388" t="s">
+        <v>146</v>
+      </c>
+      <c r="C388" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>1691</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B389" t="s">
+        <v>146</v>
+      </c>
+      <c r="C389" t="s">
         <v>147</v>
       </c>
-      <c r="C112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>1640</v>
-      </c>
-      <c r="B113" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>1216</v>
-      </c>
-      <c r="B114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
-        <v>150</v>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2330</v>
+      </c>
+      <c r="B390" t="s">
+        <v>146</v>
+      </c>
+      <c r="C390" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2203</v>
+      </c>
+      <c r="B391" t="s">
+        <v>146</v>
+      </c>
+      <c r="C391" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2214</v>
+      </c>
+      <c r="B392" t="s">
+        <v>146</v>
+      </c>
+      <c r="C392" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2261</v>
+      </c>
+      <c r="B393" t="s">
+        <v>146</v>
+      </c>
+      <c r="C393" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1787</v>
+      </c>
+      <c r="B394" t="s">
+        <v>146</v>
+      </c>
+      <c r="C394" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1702</v>
+      </c>
+      <c r="B395" t="s">
+        <v>146</v>
+      </c>
+      <c r="C395" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1703</v>
+      </c>
+      <c r="B396" t="s">
+        <v>146</v>
+      </c>
+      <c r="C396" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1705</v>
+      </c>
+      <c r="B397" t="s">
+        <v>146</v>
+      </c>
+      <c r="C397" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1836</v>
+      </c>
+      <c r="B398" t="s">
+        <v>146</v>
+      </c>
+      <c r="C398" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1706</v>
+      </c>
+      <c r="B399" t="s">
+        <v>146</v>
+      </c>
+      <c r="C399" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2175</v>
+      </c>
+      <c r="B400" t="s">
+        <v>146</v>
+      </c>
+      <c r="C400" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2108</v>
+      </c>
+      <c r="B401" t="s">
+        <v>146</v>
+      </c>
+      <c r="C401" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2198</v>
+      </c>
+      <c r="B402" t="s">
+        <v>146</v>
+      </c>
+      <c r="C402" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2158</v>
+      </c>
+      <c r="B403" t="s">
+        <v>146</v>
+      </c>
+      <c r="C403" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1929</v>
+      </c>
+      <c r="B404" t="s">
+        <v>146</v>
+      </c>
+      <c r="C404" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2064</v>
+      </c>
+      <c r="B405" t="s">
+        <v>146</v>
+      </c>
+      <c r="C405" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2252</v>
+      </c>
+      <c r="B406" t="s">
+        <v>146</v>
+      </c>
+      <c r="C406" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1812</v>
+      </c>
+      <c r="B407" t="s">
+        <v>146</v>
+      </c>
+      <c r="C407" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1708</v>
+      </c>
+      <c r="B408" t="s">
+        <v>146</v>
+      </c>
+      <c r="C408" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1709</v>
+      </c>
+      <c r="B409" t="s">
+        <v>146</v>
+      </c>
+      <c r="C409" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1938</v>
+      </c>
+      <c r="B410" t="s">
+        <v>146</v>
+      </c>
+      <c r="C410" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1839</v>
+      </c>
+      <c r="B411" t="s">
+        <v>39</v>
+      </c>
+      <c r="C411">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2136</v>
+      </c>
+      <c r="B412" t="s">
+        <v>43</v>
+      </c>
+      <c r="C412" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1979</v>
+      </c>
+      <c r="B413" t="s">
+        <v>43</v>
+      </c>
+      <c r="C413" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2045</v>
+      </c>
+      <c r="B414" t="s">
+        <v>43</v>
+      </c>
+      <c r="C414" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2257</v>
+      </c>
+      <c r="B415" t="s">
+        <v>43</v>
+      </c>
+      <c r="C415" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2088</v>
+      </c>
+      <c r="B416" t="s">
+        <v>44</v>
+      </c>
+      <c r="C416" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2148</v>
+      </c>
+      <c r="B417" t="s">
+        <v>44</v>
+      </c>
+      <c r="C417" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2210</v>
+      </c>
+      <c r="B418" t="s">
+        <v>44</v>
+      </c>
+      <c r="C418" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2188</v>
+      </c>
+      <c r="B419" t="s">
+        <v>41</v>
+      </c>
+      <c r="C419" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2225</v>
+      </c>
+      <c r="B420" t="s">
+        <v>41</v>
+      </c>
+      <c r="C420" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2224</v>
+      </c>
+      <c r="B421" t="s">
+        <v>41</v>
+      </c>
+      <c r="C421" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2189</v>
+      </c>
+      <c r="B422" t="s">
+        <v>41</v>
+      </c>
+      <c r="C422" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2303</v>
+      </c>
+      <c r="B423" t="s">
+        <v>42</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2302</v>
+      </c>
+      <c r="B424" t="s">
+        <v>42</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2285</v>
+      </c>
+      <c r="B425" t="s">
+        <v>40</v>
+      </c>
+      <c r="C425" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2350</v>
+      </c>
+      <c r="B426" t="s">
+        <v>40</v>
+      </c>
+      <c r="C426" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2351</v>
+      </c>
+      <c r="B427" t="s">
+        <v>40</v>
+      </c>
+      <c r="C427" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2283</v>
+      </c>
+      <c r="B428" t="s">
+        <v>40</v>
+      </c>
+      <c r="C428" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
